--- a/data/trans_bre/P31_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,12 +525,16 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,28</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,33</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>57,44%</t>
+          <t>65,25%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36,72%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>57,71%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53,48%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>52,45%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 10,09</t>
+          <t>1,17; 10,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,19</t>
+          <t>7,58; 16,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 10,59</t>
+          <t>1,21; 11,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 15,29</t>
+          <t>5,68; 14,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 74,28</t>
+          <t>5,23; 14,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,38; 104,67</t>
+          <t>2,46; 12,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 67,23</t>
+          <t>5,31; 76,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,55; 98,06</t>
+          <t>35,33; 99,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 72,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27,37; 93,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 89,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,61; 105,64</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,5</t>
+          <t>12,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,68</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,3%</t>
+          <t>14,61</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>60,6%</t>
+          <t>53,62%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>61,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>99,84%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 12,02</t>
+          <t>-0,84; 13,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,89; 17,26</t>
+          <t>6,63; 17,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,27</t>
+          <t>2,38; 14,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 21,22</t>
+          <t>4,18; 22,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 68,95</t>
+          <t>0,44; 16,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,8; 84,09</t>
+          <t>8,95; 20,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 75,74</t>
+          <t>-3,09; 79,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 122,37</t>
+          <t>25,56; 91,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 82,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,64; 132,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 95,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50,83; 171,59</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,07</t>
+          <t>15,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,32</t>
+          <t>16,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>53,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94,84%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 16,94</t>
+          <t>-8,36; 19,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 26,84</t>
+          <t>2,23; 26,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 26,27</t>
+          <t>6,54; 26,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 96,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 122,45</t>
+          <t>-12,85; 12,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,3; 209,47</t>
+          <t>-24,9; 118,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>4,69; 115,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28,98; 234,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-44,88; 86,52</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,75</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>57,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43,97%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,96</t>
+          <t>2,09; 10,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 15,7</t>
+          <t>8,68; 15,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,31</t>
+          <t>4,98; 12,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,8</t>
+          <t>6,94; 14,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 53,96</t>
+          <t>5,45; 13,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 79,5</t>
+          <t>5,63; 12,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 65,29</t>
+          <t>9,72; 61,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,5; 86,32</t>
+          <t>38,16; 82,07</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 69,16</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34,09; 87,25</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24,59; 77,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>32,7; 95,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,42</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,08</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,28</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>37,89%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>65,25%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>36,72%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>57,71%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>53,48%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>52,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.726494747621586</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.97369415721295</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.490140345376255</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.41692793086331</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>10.17556989578504</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>7.953190251364123</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.351058328042621</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6585697516448712</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3488249513003655</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5770866985803639</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.541245220000559</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.5634449937182143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 10,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,58; 16,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 11,16</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,68; 14,73</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>5,23; 14,55</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 12,35</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 76,87</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>35,33; 99,93</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,56; 72,09</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>27,37; 93,76</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>24,45; 89,02</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>14,61; 105,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.179871261701182</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7.425114153357216</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.393084169030984</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.679897637877975</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5.388971552077799</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.695738080211546</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.05301988274078306</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3487456407693856</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.05580866112216784</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.2736973947064507</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.2572015994535226</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.1520853900663222</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.18897478682429</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.16482214149305</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.17068285582073</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.73430762618797</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>14.67396435902593</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>13.03828491985501</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7414438317340686</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.00484450912619</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7202563781745769</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.9375621089183255</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.9019987304826099</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.082785513948096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,51</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,61</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,81%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>53,62%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>40,35%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>61,21%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>38,54%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>99,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 13,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 17,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 14,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,18; 22,23</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 16,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,95; 20,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 79,49</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>25,56; 91,21</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>8,66; 82,01</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,64; 132,5</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 95,53</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>50,83; 171,59</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.893626280510549</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.49592239295387</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.390559683425137</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.80481122819853</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>7.659344619539773</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>14.55116552607381</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3956264853222122</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4945552507039581</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3951139834452538</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.6120634790917896</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.3603909190977133</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.9908669454917474</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>15,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16,76</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>35,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>53,17%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>94,84%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>9,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.8019729628899037</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.837015845417235</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.394353044321543</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.17936866833681</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.07014929540968674</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>8.673792814851563</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.02455551239587011</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1738773172869729</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.08641515172191556</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.1663830371507866</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.002927001126951042</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.4875851276721834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 19,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 26,24</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,54; 26,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; 12,94</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-24,9; 118,45</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 115,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>28,98; 234,33</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-44,88; 86,52</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.53997079031961</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.9247596714136</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.52966193370679</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>22.23356345994125</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>16.1314127817671</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20.39096897396922</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8940409022994641</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8406282862267492</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8066386236769024</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.325010165479555</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.9116936947424219</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.67345797318518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>12,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,53</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>10,85</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,43</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>34,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>57,24%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>43,97%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>57,89%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>49,43%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>62,34%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.861454449809076</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.72373056682113</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>16.86487128262978</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>2.194786971320636</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2862496946125115</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.5953954787076305</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.9689469019486991</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.09823458942356204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 10,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,68; 15,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,98; 12,06</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 14,71</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 13,53</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,63; 12,9</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>9,72; 61,48</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>38,16; 82,07</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>21,94; 69,16</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>34,09; 87,25</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>24,59; 77,16</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>32,7; 95,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.949262112655971</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4.0094462014489</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6.414427811058958</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-11.48649524367926</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2731697626425405</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.08156366809707194</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.2895189797604915</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.3914897557738255</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.76629505606232</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>27.93722493105543</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>26.50737649539059</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>14.27309283378792</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.134582782821785</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.266993818950316</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.341885185097488</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>0.9211546060899723</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.573218689262394</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12.12887422092098</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.362588428652026</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>10.85185055272173</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>9.556188677039657</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>9.78856401268153</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3514822740580754</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5661231804192912</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4285891906783424</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5789348285016659</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.4924419471473094</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.6378101800306968</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.507386313491916</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>8.477554148216152</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.799854255512853</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.943280317476608</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.449089505131265</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>6.340690142492978</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1202543413963431</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3509704442106761</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2052847604711033</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.3409271243550755</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.2452222459642562</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.360013097402283</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.25366174560172</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.39676514924971</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.02927946736012</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.71088053988212</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>13.55570119865073</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>13.63708618365106</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6270736338043686</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7874926467328358</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6893851895275827</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8724506288252178</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.7674033073202405</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.9945302968695537</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
